--- a/biology/Zoologie/Ascololepidopterigidae/Ascololepidopterigidae.xlsx
+++ b/biology/Zoologie/Ascololepidopterigidae/Ascololepidopterigidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ascololepidopterix, Ascololepidopterix multinerve
 Les Ascololepidopterigidae sont une famille fossile d'insectes lépidoptères. L'espèce Ascololepidopterix multinerve est la seule du genre fossile Ascololepidopterix.
@@ -512,13 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Ascololepidopterigidae, le genre Ascololepidopterix et l'espèce Ascololepidopterix multinerve sont décrits en 2013 par les paléontologues et entomologistes chinois et américains Wei-Ting Zhang (d), Chung-Kun Shih (d), Conrad Christopher Labandeira (d) et Dong Ren (d)[1],[2],[3],[4].
-Fossiles
-Selon Paleobiology Database en 2023, il n'y a qu'une seule collection de fossiles, qui est du Jurassique de Chine, « Daohugou (CNU 2012 collection) »[2].
-Ceci atteste la présence de cette famille du Callovien du Jurassique moyen à l'Oxfordien du Jurassique supérieur, ou soit encore de 166,1 à 157,3 Ma avant notre ère[2].
-Par contre cette collections composite représente trois espèces, Ascololepidopterix multinerve, Pegolepidopteron latiala Zhang et al., 2013 et Trionolepidopteron admarginis Zhang et al., 2013.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Ascololepidopterigidae, le genre Ascololepidopterix et l'espèce Ascololepidopterix multinerve sont décrits en 2013 par les paléontologues et entomologistes chinois et américains Wei-Ting Zhang (d), Chung-Kun Shih (d), Conrad Christopher Labandeira (d) et Dong Ren (d).
 </t>
         </is>
       </c>
@@ -544,13 +554,57 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, il n'y a qu'une seule collection de fossiles, qui est du Jurassique de Chine, « Daohugou (CNU 2012 collection) ».
+Ceci atteste la présence de cette famille du Callovien du Jurassique moyen à l'Oxfordien du Jurassique supérieur, ou soit encore de 166,1 à 157,3 Ma avant notre ère.
+Par contre cette collections composite représente trois espèces, Ascololepidopterix multinerve, Pegolepidopteron latiala Zhang et al., 2013 et Trionolepidopteron admarginis Zhang et al., 2013.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ascololepidopterigidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ascololepidopterigidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des genres de la famille des Ascololepidopterigidae
-†Ascololepidopterix Zhang et al., 2013
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des genres de la famille des Ascololepidopterigidae</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>†Ascololepidopterix Zhang et al., 2013
 †Pegolepidopteron Zhang et al., 2013
 †Trionolepidopteron Zhang et al., 2013</t>
         </is>
